--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T21:33:06+08:00</t>
+    <t>2022-07-20T22:00:32+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$51</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/Observation-profile</t>
+    <t>https://example.org/fhir/StructureDefinition/MyObservation</t>
   </si>
   <si>
     <t>Version</t>
@@ -51,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:00:32+08:00</t>
+    <t>2022-07-31T21:33:26+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,14 +428,21 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -451,10 +455,6 @@
     <t>Observation.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -462,9 +462,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -627,6 +627,216 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -673,6 +883,48 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>https://www.vghtpe.gov.tw/Index.action</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>21908-9</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Stage group.clinical Cancer</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -765,8 +1017,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -1121,28 +1373,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1369,6 +1600,42 @@
 &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>CLCALT</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
@@ -1379,6 +1646,18 @@
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].coding</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].text</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1532,21 +1811,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1715,7 +1979,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1724,7 +1988,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.6015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1751,7 +2015,7 @@
     <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1892,7 +2156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2009,7 +2273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2126,7 +2390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2241,7 +2505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2358,7 +2622,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2475,7 +2739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2592,7 +2856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2715,7 +2979,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2725,7 +2989,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>79</v>
@@ -2734,15 +2998,17 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2791,7 +3057,7 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2803,7 +3069,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -2815,7 +3081,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -2824,13 +3090,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2849,16 +3115,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
         <v>144</v>
@@ -2922,7 +3188,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -2943,7 +3209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -2953,7 +3219,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>78</v>
@@ -2968,17 +3234,17 @@
         <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3042,31 +3308,31 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3085,17 +3351,17 @@
         <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3144,7 +3410,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3159,16 +3425,16 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3177,13 +3443,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3202,16 +3468,16 @@
         <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3261,7 +3527,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3276,16 +3542,16 @@
         <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3296,7 +3562,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3310,7 +3576,7 @@
         <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>90</v>
@@ -3322,16 +3588,16 @@
         <v>109</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3356,13 +3622,13 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -3380,7 +3646,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>89</v>
@@ -3395,27 +3661,27 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3438,19 +3704,19 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3478,10 +3744,10 @@
         <v>113</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3499,7 +3765,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3523,26 +3789,26 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>89</v>
@@ -3554,10 +3820,10 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>198</v>
@@ -3565,12 +3831,8 @@
       <c r="L16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3594,13 +3856,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3618,10 +3880,10 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>89</v>
@@ -3630,66 +3892,64 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3725,54 +3985,54 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3795,18 +4055,20 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3854,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3875,25 +4137,25 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3909,23 +4171,19 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3973,7 +4231,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3985,41 +4243,41 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4028,23 +4286,21 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4080,54 +4336,54 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4150,18 +4406,20 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4170,7 +4428,7 @@
         <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>79</v>
@@ -4209,7 +4467,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4230,21 +4488,21 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4255,7 +4513,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4267,18 +4525,18 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4326,13 +4584,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4341,27 +4599,27 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4384,19 +4642,17 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4445,7 +4701,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4454,7 +4710,7 @@
         <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>101</v>
@@ -4463,24 +4719,24 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4500,22 +4756,20 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4540,13 +4794,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4564,7 +4818,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4573,7 +4827,7 @@
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4585,10 +4839,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4597,20 +4851,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4619,22 +4873,22 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4659,13 +4913,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4683,13 +4937,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4701,24 +4955,24 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4729,7 +4983,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4738,22 +4992,22 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4802,13 +5056,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4823,10 +5077,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4835,17 +5089,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>89</v>
@@ -4857,21 +5111,23 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4895,13 +5151,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4919,10 +5175,10 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>89</v>
@@ -4934,27 +5190,27 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4977,20 +5233,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5014,13 +5266,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5038,7 +5290,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5050,7 +5302,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5059,10 +5311,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5071,20 +5323,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5096,16 +5348,16 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5143,54 +5395,54 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5201,7 +5453,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5210,21 +5462,23 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5272,13 +5526,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5290,24 +5544,24 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>342</v>
+        <v>216</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5318,7 +5572,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5330,20 +5584,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>345</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>346</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5391,19 +5641,19 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5412,10 +5662,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>352</v>
+        <v>201</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5424,20 +5674,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5449,15 +5699,17 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>354</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5494,31 +5746,31 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>356</v>
+        <v>207</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5530,7 +5782,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5539,20 +5791,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5561,21 +5813,23 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5584,7 +5838,7 @@
         <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -5623,19 +5877,19 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -5644,10 +5898,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5656,45 +5910,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>229</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5742,19 +5994,19 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
@@ -5763,10 +6015,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5775,9 +6027,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5797,19 +6049,21 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>368</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5857,7 +6111,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5866,7 +6120,7 @@
         <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>101</v>
@@ -5878,10 +6132,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>373</v>
+        <v>241</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5890,9 +6144,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5912,19 +6166,21 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>368</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5972,7 +6228,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5981,7 +6237,7 @@
         <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
@@ -5993,10 +6249,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6005,9 +6261,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6027,22 +6283,22 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6067,13 +6323,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6091,7 +6347,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6109,13 +6365,13 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6124,9 +6380,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6137,7 +6393,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6146,22 +6402,22 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>388</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>261</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6186,13 +6442,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6210,13 +6466,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>387</v>
+        <v>263</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6228,13 +6484,13 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6243,9 +6499,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6253,7 +6509,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>89</v>
@@ -6265,20 +6521,22 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6327,7 +6585,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6342,27 +6600,27 @@
         <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6373,7 +6631,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6382,18 +6640,20 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6442,13 +6702,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6463,32 +6723,32 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6500,18 +6760,20 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6559,13 +6821,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6574,38 +6836,38 @@
         <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6617,18 +6879,20 @@
         <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6676,13 +6940,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6691,19 +6955,19 @@
         <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6711,7 +6975,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6722,10 +6986,10 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6734,20 +6998,18 @@
         <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6795,13 +7057,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6816,21 +7078,21 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6838,10 +7100,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6850,19 +7112,21 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6910,53 +7174,53 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6965,21 +7229,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7027,77 +7293,77 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7122,13 +7388,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7146,19 +7412,19 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7167,10 +7433,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7179,20 +7445,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7201,22 +7467,22 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>201</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7241,13 +7507,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>203</v>
+        <v>377</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7265,13 +7531,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7283,24 +7549,24 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>381</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7311,7 +7577,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7320,22 +7586,22 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>271</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7384,13 +7650,13 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7402,24 +7668,24 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>274</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>275</v>
+        <v>390</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7442,20 +7708,18 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7479,13 +7743,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7503,7 +7767,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7512,7 +7776,7 @@
         <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>101</v>
@@ -7521,35 +7785,35 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7561,19 +7825,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
+        <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7598,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>406</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7622,13 +7886,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7640,24 +7904,24 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>297</v>
+        <v>409</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7668,7 +7932,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7680,20 +7944,18 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7741,13 +8003,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7759,40 +8021,4369 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>02-Observation Profile(CISISTAG)</t>
+    <t>Observation Profile(CISISTAG)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T21:33:26+08:00</t>
+    <t>2022-08-03T14:01:00+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example of a profile of Observation</t>
+    <t>Example of a profile of Observation(CISISTAG)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:01:00+08:00</t>
+    <t>2022-08-07T11:52:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-07T11:52:30+08:00</t>
+    <t>2022-08-27T12:17:33+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example of a profile of Observation(CISISTAG)</t>
+    <t>Example of a profile of Observation(CISISTAG)癌病病患原始期別</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T12:17:33+08:00</t>
+    <t>2022-08-27T19:57:01+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T19:57:01+08:00</t>
+    <t>2022-09-25T15:07:05+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-profile.xlsx
+++ b/docs/StructureDefinition-Observation-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
